--- a/Week-2/RoSA/ExcelFiles/ClientShoppingList.xlsx
+++ b/Week-2/RoSA/ExcelFiles/ClientShoppingList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Dan-Vega-Code\Week-2\RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Dan-Vega-Code\Week-2\RoSA\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4946E28-50E7-43EB-98CD-3867C97D9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB50AFC-67C8-4681-B2C6-C8CC0C7DD2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1320" windowWidth="14415" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClientShoppingList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>ClientName</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>orderID</t>
+  </si>
+  <si>
+    <t>Chips</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +531,23 @@
         <v>141</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7ECD43E5-5F07-4AC2-8DC9-02A1B398F82B}"/>
@@ -535,6 +555,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{F19DDADC-9458-4B99-A713-2BC93FD8B0A5}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{1E5229E9-1BC1-42E8-B67A-E9FD4D65CB98}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{AA9F8974-AF20-45CF-B022-92E25A3C1884}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{03FFE0CE-C04D-4EA8-83D4-16BF8AC0BE52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Week-2/RoSA/ExcelFiles/ClientShoppingList.xlsx
+++ b/Week-2/RoSA/ExcelFiles/ClientShoppingList.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Dan-Vega-Code\Week-2\RoSA\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB50AFC-67C8-4681-B2C6-C8CC0C7DD2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B6F60-E7B1-44DB-9CE9-2A052CD0B5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21195" yWindow="8535" windowWidth="10410" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ClientShoppingList" sheetId="1" r:id="rId1"/>
-    <sheet name="Jay" sheetId="2" r:id="rId2"/>
-    <sheet name="Claire" sheetId="3" r:id="rId3"/>
-    <sheet name="Wes" sheetId="4" r:id="rId4"/>
-    <sheet name="TerryAnn" sheetId="5" r:id="rId5"/>
+    <sheet name="Zol" sheetId="8" r:id="rId1"/>
+    <sheet name="Claire" sheetId="7" r:id="rId2"/>
+    <sheet name="TerryAnn" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>ClientName</t>
   </si>
@@ -40,9 +38,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Jay</t>
-  </si>
-  <si>
     <t>Bird Seeds</t>
   </si>
   <si>
@@ -52,58 +47,26 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Wes</t>
-  </si>
-  <si>
     <t>Advil</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>redJ@gmail.com</t>
-  </si>
-  <si>
-    <t>56Clare@gmail.com</t>
-  </si>
-  <si>
-    <t>WesH@outlook.com</t>
-  </si>
-  <si>
-    <t>Dog Food</t>
-  </si>
-  <si>
     <t>Terry-Ann</t>
   </si>
   <si>
-    <t>terryann@yahoo.com</t>
-  </si>
-  <si>
     <t>Soda</t>
   </si>
   <si>
-    <t>orderID</t>
-  </si>
-  <si>
-    <t>Chips</t>
+    <t>Zol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,16 +89,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,172 +373,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2380C3-9687-417F-B1A1-0B4FF0C94262}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7ECD43E5-5F07-4AC2-8DC9-02A1B398F82B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FF227A27-28D4-4F9D-B73F-3FA75D0BC87A}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{F19DDADC-9458-4B99-A713-2BC93FD8B0A5}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{1E5229E9-1BC1-42E8-B67A-E9FD4D65CB98}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{AA9F8974-AF20-45CF-B022-92E25A3C1884}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{03FFE0CE-C04D-4EA8-83D4-16BF8AC0BE52}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BE08F-D80E-42D3-B07E-BCCA501BDEB7}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3C68AB-082A-47BE-8F81-2535F0098FA4}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -588,42 +441,50 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3A7FE0DA-4F8E-4043-A0EF-FEB958F3797D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A768CEE-C68C-4FE7-93F2-87AF968223E9}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -633,121 +494,17 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F77B5D92-A8BE-4E6F-BBD5-2596B62D5C5A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{DA2447FA-0E83-4B1C-B48A-51282FEDDFB0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED59B96-F5E8-4EE3-A241-987255083DD3}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D1E6D6D5-5EB7-4277-A397-1A5F955A74E1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0141BE4B-6EF0-4B7F-8DBB-048DED7E7033}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3A3570BD-4E04-4A8A-8A43-EAB3A34325C2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>